--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam1-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam1-Itgb2.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>144.843106</v>
+        <v>30.87085333333333</v>
       </c>
       <c r="H2">
-        <v>434.529318</v>
+        <v>92.61256</v>
       </c>
       <c r="I2">
-        <v>0.6517202749316883</v>
+        <v>0.2985789950947061</v>
       </c>
       <c r="J2">
-        <v>0.6517202749316884</v>
+        <v>0.2985789950947061</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="N2">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="O2">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="P2">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="Q2">
-        <v>9190.81549697986</v>
+        <v>1.990542332648889</v>
       </c>
       <c r="R2">
-        <v>82717.33947281873</v>
+        <v>17.91488099384</v>
       </c>
       <c r="S2">
-        <v>0.2432910551161961</v>
+        <v>0.0003287769485039451</v>
       </c>
       <c r="T2">
-        <v>0.2432910551161962</v>
+        <v>0.0003287769485039451</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>144.843106</v>
+        <v>30.87085333333333</v>
       </c>
       <c r="H3">
-        <v>434.529318</v>
+        <v>92.61256</v>
       </c>
       <c r="I3">
-        <v>0.6517202749316883</v>
+        <v>0.2985789950947061</v>
       </c>
       <c r="J3">
-        <v>0.6517202749316884</v>
+        <v>0.2985789950947061</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.155386</v>
       </c>
       <c r="O3">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="P3">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="Q3">
-        <v>55.78323228963867</v>
+        <v>11.88925058312889</v>
       </c>
       <c r="R3">
-        <v>502.049090606748</v>
+        <v>107.00325524816</v>
       </c>
       <c r="S3">
-        <v>0.001476643878445577</v>
+        <v>0.001963741972529733</v>
       </c>
       <c r="T3">
-        <v>0.001476643878445577</v>
+        <v>0.001963741972529734</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>144.843106</v>
+        <v>30.87085333333333</v>
       </c>
       <c r="H4">
-        <v>434.529318</v>
+        <v>92.61256</v>
       </c>
       <c r="I4">
-        <v>0.6517202749316883</v>
+        <v>0.2985789950947061</v>
       </c>
       <c r="J4">
-        <v>0.6517202749316884</v>
+        <v>0.2985789950947061</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="N4">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="O4">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="P4">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="Q4">
-        <v>3.062128103946001</v>
+        <v>0.252369226</v>
       </c>
       <c r="R4">
-        <v>27.559152935514</v>
+        <v>2.271323034</v>
       </c>
       <c r="S4">
-        <v>8.105791891424498E-05</v>
+        <v>4.16837073292317E-05</v>
       </c>
       <c r="T4">
-        <v>8.1057918914245E-05</v>
+        <v>4.168370732923171E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>144.843106</v>
+        <v>30.87085333333333</v>
       </c>
       <c r="H5">
-        <v>434.529318</v>
+        <v>92.61256</v>
       </c>
       <c r="I5">
-        <v>0.6517202749316883</v>
+        <v>0.2985789950947061</v>
       </c>
       <c r="J5">
-        <v>0.6517202749316884</v>
+        <v>0.2985789950947061</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="N5">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="O5">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="P5">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="Q5">
-        <v>15370.40090230522</v>
+        <v>1793.58012450184</v>
       </c>
       <c r="R5">
-        <v>138333.608120747</v>
+        <v>16142.22112051656</v>
       </c>
       <c r="S5">
-        <v>0.4068715180181323</v>
+        <v>0.2962447924663432</v>
       </c>
       <c r="T5">
-        <v>0.4068715180181324</v>
+        <v>0.2962447924663433</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.79359700000001</v>
+        <v>33.793597</v>
       </c>
       <c r="H6">
         <v>101.380791</v>
       </c>
       <c r="I6">
-        <v>0.1520539909422453</v>
+        <v>0.3268474027571036</v>
       </c>
       <c r="J6">
-        <v>0.1520539909422453</v>
+        <v>0.3268474027571037</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="N6">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="O6">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="P6">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="Q6">
-        <v>2144.325150044021</v>
+        <v>2.178999870027667</v>
       </c>
       <c r="R6">
-        <v>19298.92635039619</v>
+        <v>19.610998830249</v>
       </c>
       <c r="S6">
-        <v>0.05676265924801089</v>
+        <v>0.0003599043920381449</v>
       </c>
       <c r="T6">
-        <v>0.05676265924801089</v>
+        <v>0.0003599043920381449</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.79359700000001</v>
+        <v>33.793597</v>
       </c>
       <c r="H7">
         <v>101.380791</v>
       </c>
       <c r="I7">
-        <v>0.1520539909422453</v>
+        <v>0.3268474027571036</v>
       </c>
       <c r="J7">
-        <v>0.1520539909422453</v>
+        <v>0.3268474027571037</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>1.155386</v>
       </c>
       <c r="O7">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="P7">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="Q7">
         <v>13.01488295448067</v>
@@ -883,10 +883,10 @@
         <v>117.133946590326</v>
       </c>
       <c r="S7">
-        <v>0.0003445183517447274</v>
+        <v>0.002149662146203113</v>
       </c>
       <c r="T7">
-        <v>0.0003445183517447274</v>
+        <v>0.002149662146203114</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.79359700000001</v>
+        <v>33.793597</v>
       </c>
       <c r="H8">
         <v>101.380791</v>
       </c>
       <c r="I8">
-        <v>0.1520539909422453</v>
+        <v>0.3268474027571036</v>
       </c>
       <c r="J8">
-        <v>0.1520539909422453</v>
+        <v>0.3268474027571037</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="N8">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="O8">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="P8">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="Q8">
-        <v>0.7144304341770003</v>
+        <v>0.276262655475</v>
       </c>
       <c r="R8">
-        <v>6.429873907593001</v>
+        <v>2.486363899275</v>
       </c>
       <c r="S8">
-        <v>1.891176405349021E-05</v>
+        <v>4.563017392943254E-05</v>
       </c>
       <c r="T8">
-        <v>1.891176405349021E-05</v>
+        <v>4.563017392943255E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.79359700000001</v>
+        <v>33.793597</v>
       </c>
       <c r="H9">
         <v>101.380791</v>
       </c>
       <c r="I9">
-        <v>0.1520539909422453</v>
+        <v>0.3268474027571036</v>
       </c>
       <c r="J9">
-        <v>0.1520539909422453</v>
+        <v>0.3268474027571037</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="N9">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="O9">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="P9">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="Q9">
-        <v>3586.094969690439</v>
+        <v>1963.389973712799</v>
       </c>
       <c r="R9">
-        <v>32274.85472721395</v>
+        <v>17670.50976341519</v>
       </c>
       <c r="S9">
-        <v>0.09492790157843622</v>
+        <v>0.3242922060449329</v>
       </c>
       <c r="T9">
-        <v>0.09492790157843622</v>
+        <v>0.324292206044933</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.273049333333333</v>
+        <v>2.981185666666667</v>
       </c>
       <c r="H10">
-        <v>6.819148</v>
+        <v>8.943557</v>
       </c>
       <c r="I10">
-        <v>0.01022756537997252</v>
+        <v>0.02883365130639111</v>
       </c>
       <c r="J10">
-        <v>0.01022756537997253</v>
+        <v>0.02883365130639111</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="N10">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="O10">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="P10">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="Q10">
-        <v>144.2331472662547</v>
+        <v>0.1922258580581111</v>
       </c>
       <c r="R10">
-        <v>1298.098325396292</v>
+        <v>1.730032722523</v>
       </c>
       <c r="S10">
-        <v>0.003818010990718694</v>
+        <v>3.174985530289949E-05</v>
       </c>
       <c r="T10">
-        <v>0.003818010990718695</v>
+        <v>3.174985530289949E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.273049333333333</v>
+        <v>2.981185666666667</v>
       </c>
       <c r="H11">
-        <v>6.819148</v>
+        <v>8.943557</v>
       </c>
       <c r="I11">
-        <v>0.01022756537997252</v>
+        <v>0.02883365130639111</v>
       </c>
       <c r="J11">
-        <v>0.01022756537997253</v>
+        <v>0.02883365130639111</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>1.155386</v>
       </c>
       <c r="O11">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="P11">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="Q11">
-        <v>0.8754164590142222</v>
+        <v>1.148140060889111</v>
       </c>
       <c r="R11">
-        <v>7.878748131128001</v>
+        <v>10.333260548002</v>
       </c>
       <c r="S11">
-        <v>2.317324224924773E-05</v>
+        <v>0.0001896377582545186</v>
       </c>
       <c r="T11">
-        <v>2.317324224924773E-05</v>
+        <v>0.0001896377582545186</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.273049333333333</v>
+        <v>2.981185666666667</v>
       </c>
       <c r="H12">
-        <v>6.819148</v>
+        <v>8.943557</v>
       </c>
       <c r="I12">
-        <v>0.01022756537997252</v>
+        <v>0.02883365130639111</v>
       </c>
       <c r="J12">
-        <v>0.01022756537997253</v>
+        <v>0.02883365130639111</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="N12">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="O12">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="P12">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="Q12">
-        <v>0.048054535956</v>
+        <v>0.024371192825</v>
       </c>
       <c r="R12">
-        <v>0.432490823604</v>
+        <v>0.219340735425</v>
       </c>
       <c r="S12">
-        <v>1.272056735302348E-06</v>
+        <v>4.025378549845739E-06</v>
       </c>
       <c r="T12">
-        <v>1.272056735302348E-06</v>
+        <v>4.025378549845739E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.273049333333333</v>
+        <v>2.981185666666667</v>
       </c>
       <c r="H13">
-        <v>6.819148</v>
+        <v>8.943557</v>
       </c>
       <c r="I13">
-        <v>0.01022756537997252</v>
+        <v>0.02883365130639111</v>
       </c>
       <c r="J13">
-        <v>0.01022756537997253</v>
+        <v>0.02883365130639111</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="N13">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="O13">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="P13">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="Q13">
-        <v>241.210510385292</v>
+        <v>173.205298261373</v>
       </c>
       <c r="R13">
-        <v>2170.894593467628</v>
+        <v>1558.847684352357</v>
       </c>
       <c r="S13">
-        <v>0.006385109090269281</v>
+        <v>0.02860823831428384</v>
       </c>
       <c r="T13">
-        <v>0.006385109090269282</v>
+        <v>0.02860823831428384</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>41.33760066666667</v>
+        <v>35.74694633333333</v>
       </c>
       <c r="H14">
-        <v>124.012802</v>
+        <v>107.240839</v>
       </c>
       <c r="I14">
-        <v>0.1859981687460937</v>
+        <v>0.3457399508417991</v>
       </c>
       <c r="J14">
-        <v>0.1859981687460938</v>
+        <v>0.3457399508417991</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="N14">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="O14">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="P14">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="Q14">
-        <v>2623.019288299196</v>
+        <v>2.304951183924556</v>
       </c>
       <c r="R14">
-        <v>23607.17359469276</v>
+        <v>20.744560655321</v>
       </c>
       <c r="S14">
-        <v>0.06943422272486552</v>
+        <v>0.000380707711798733</v>
       </c>
       <c r="T14">
-        <v>0.06943422272486553</v>
+        <v>0.0003807077117987329</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>41.33760066666667</v>
+        <v>35.74694633333333</v>
       </c>
       <c r="H15">
-        <v>124.012802</v>
+        <v>107.240839</v>
       </c>
       <c r="I15">
-        <v>0.1859981687460937</v>
+        <v>0.3457399508417991</v>
       </c>
       <c r="J15">
-        <v>0.1859981687460938</v>
+        <v>0.3457399508417991</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>1.155386</v>
       </c>
       <c r="O15">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="P15">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="Q15">
-        <v>15.92029502795245</v>
+        <v>13.76717377876156</v>
       </c>
       <c r="R15">
-        <v>143.282655251572</v>
+        <v>123.904564008854</v>
       </c>
       <c r="S15">
-        <v>0.0004214278239384148</v>
+        <v>0.002273917670709065</v>
       </c>
       <c r="T15">
-        <v>0.0004214278239384148</v>
+        <v>0.002273917670709065</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>41.33760066666667</v>
+        <v>35.74694633333333</v>
       </c>
       <c r="H16">
-        <v>124.012802</v>
+        <v>107.240839</v>
       </c>
       <c r="I16">
-        <v>0.1859981687460937</v>
+        <v>0.3457399508417991</v>
       </c>
       <c r="J16">
-        <v>0.1859981687460938</v>
+        <v>0.3457399508417991</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="N16">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="O16">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="P16">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="Q16">
-        <v>0.8739182156940002</v>
+        <v>0.292231286275</v>
       </c>
       <c r="R16">
-        <v>7.865263941246002</v>
+        <v>2.630081576475</v>
       </c>
       <c r="S16">
-        <v>2.31335820908736E-05</v>
+        <v>4.826770522936908E-05</v>
       </c>
       <c r="T16">
-        <v>2.31335820908736E-05</v>
+        <v>4.826770522936908E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>41.33760066666667</v>
+        <v>35.74694633333333</v>
       </c>
       <c r="H17">
-        <v>124.012802</v>
+        <v>107.240839</v>
       </c>
       <c r="I17">
-        <v>0.1859981687460937</v>
+        <v>0.3457399508417991</v>
       </c>
       <c r="J17">
-        <v>0.1859981687460938</v>
+        <v>0.3457399508417991</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="N17">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="O17">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="P17">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="Q17">
-        <v>4386.646435116258</v>
+        <v>2076.878528844271</v>
       </c>
       <c r="R17">
-        <v>39479.81791604633</v>
+        <v>18691.90675959844</v>
       </c>
       <c r="S17">
-        <v>0.1161193846151989</v>
+        <v>0.343037057754062</v>
       </c>
       <c r="T17">
-        <v>0.1161193846151989</v>
+        <v>0.343037057754062</v>
       </c>
     </row>
   </sheetData>
